--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H2">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I2">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J2">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.949586377120877</v>
+        <v>1.252524333333333</v>
       </c>
       <c r="N2">
-        <v>0.949586377120877</v>
+        <v>3.757573</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="Q2">
-        <v>0.2963950707105825</v>
+        <v>0.426240293255</v>
       </c>
       <c r="R2">
-        <v>0.2963950707105825</v>
+        <v>3.836162639295</v>
       </c>
       <c r="S2">
-        <v>0.2804211828070108</v>
+        <v>0.2196518276661979</v>
       </c>
       <c r="T2">
-        <v>0.2804211828070108</v>
+        <v>0.2295804133118247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,60 +593,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417963708183947</v>
+        <v>0.340305</v>
       </c>
       <c r="H3">
-        <v>0.417963708183947</v>
+        <v>1.020915</v>
       </c>
       <c r="I3">
-        <v>0.3755025488416036</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J3">
-        <v>0.3755025488416036</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.949586377120877</v>
+        <v>0.108201</v>
       </c>
       <c r="N3">
-        <v>0.949586377120877</v>
+        <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0786103960924746</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07861039609247461</v>
       </c>
       <c r="Q3">
-        <v>0.3968926434224017</v>
+        <v>0.036821341305</v>
       </c>
       <c r="R3">
-        <v>0.3968926434224017</v>
+        <v>0.331392071745</v>
       </c>
       <c r="S3">
-        <v>0.3755025488416036</v>
+        <v>0.01897491870841387</v>
       </c>
       <c r="T3">
-        <v>0.3755025488416036</v>
+        <v>0.01983261293985725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2179485360073</v>
+        <v>0.340305</v>
       </c>
       <c r="H4">
-        <v>0.2179485360073</v>
+        <v>1.020915</v>
       </c>
       <c r="I4">
-        <v>0.1958070262670247</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J4">
-        <v>0.1958070262670247</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.949586377120877</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N4">
-        <v>0.949586377120877</v>
+        <v>0.047087</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.01140324556706608</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01140324556706608</v>
       </c>
       <c r="Q4">
-        <v>0.206960960705971</v>
+        <v>0.005341313845000001</v>
       </c>
       <c r="R4">
-        <v>0.206960960705971</v>
+        <v>0.048071824605</v>
       </c>
       <c r="S4">
-        <v>0.1958070262670247</v>
+        <v>0.002752506899884117</v>
       </c>
       <c r="T4">
-        <v>0.1958070262670247</v>
+        <v>0.00287692425978521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,52 +720,548 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.165035263868059</v>
+        <v>0.472982</v>
       </c>
       <c r="H5">
-        <v>0.165035263868059</v>
+        <v>1.418946</v>
       </c>
       <c r="I5">
-        <v>0.1482692420843608</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J5">
-        <v>0.1482692420843608</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.949586377120877</v>
+        <v>1.252524333333333</v>
       </c>
       <c r="N5">
-        <v>0.949586377120877</v>
+        <v>3.757573</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="Q5">
-        <v>0.1567152383136581</v>
+        <v>0.5924214642286667</v>
       </c>
       <c r="R5">
-        <v>0.1567152383136581</v>
+        <v>5.331793178058</v>
       </c>
       <c r="S5">
-        <v>0.1482692420843608</v>
+        <v>0.3052889635862348</v>
       </c>
       <c r="T5">
-        <v>0.1482692420843608</v>
+        <v>0.3190884737193208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.472982</v>
+      </c>
+      <c r="H6">
+        <v>1.418946</v>
+      </c>
+      <c r="I6">
+        <v>0.3354874068035369</v>
+      </c>
+      <c r="J6">
+        <v>0.3506519309819567</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.108201</v>
+      </c>
+      <c r="N6">
+        <v>0.324603</v>
+      </c>
+      <c r="O6">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P6">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q6">
+        <v>0.051177125382</v>
+      </c>
+      <c r="R6">
+        <v>0.460594128438</v>
+      </c>
+      <c r="S6">
+        <v>0.02637279793286319</v>
+      </c>
+      <c r="T6">
+        <v>0.02756488718508269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.472982</v>
+      </c>
+      <c r="H7">
+        <v>1.418946</v>
+      </c>
+      <c r="I7">
+        <v>0.3354874068035369</v>
+      </c>
+      <c r="J7">
+        <v>0.3506519309819567</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.047087</v>
+      </c>
+      <c r="O7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q7">
+        <v>0.007423767811333333</v>
+      </c>
+      <c r="R7">
+        <v>0.066813910302</v>
+      </c>
+      <c r="S7">
+        <v>0.003825645284438928</v>
+      </c>
+      <c r="T7">
+        <v>0.00399857007755316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4136363333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.240909</v>
+      </c>
+      <c r="I8">
+        <v>0.2933933655608953</v>
+      </c>
+      <c r="J8">
+        <v>0.3066551771687498</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.757573</v>
+      </c>
+      <c r="O8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q8">
+        <v>0.5180895726507778</v>
+      </c>
+      <c r="R8">
+        <v>4.662806153857</v>
+      </c>
+      <c r="S8">
+        <v>0.2669839602880102</v>
+      </c>
+      <c r="T8">
+        <v>0.279052027938039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4136363333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.240909</v>
+      </c>
+      <c r="I9">
+        <v>0.2933933655608953</v>
+      </c>
+      <c r="J9">
+        <v>0.3066551771687498</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.108201</v>
+      </c>
+      <c r="N9">
+        <v>0.324603</v>
+      </c>
+      <c r="O9">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P9">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q9">
+        <v>0.04475586490299999</v>
+      </c>
+      <c r="R9">
+        <v>0.402802784127</v>
+      </c>
+      <c r="S9">
+        <v>0.02306376867764617</v>
+      </c>
+      <c r="T9">
+        <v>0.0241062849410434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4136363333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.240909</v>
+      </c>
+      <c r="I10">
+        <v>0.2933933655608953</v>
+      </c>
+      <c r="J10">
+        <v>0.3066551771687498</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.047087</v>
+      </c>
+      <c r="O10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q10">
+        <v>0.006492298009222222</v>
+      </c>
+      <c r="R10">
+        <v>0.058430682083</v>
+      </c>
+      <c r="S10">
+        <v>0.003345636595238878</v>
+      </c>
+      <c r="T10">
+        <v>0.003496864289667411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.182912</v>
+      </c>
+      <c r="H11">
+        <v>0.365824</v>
+      </c>
+      <c r="I11">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J11">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.757573</v>
+      </c>
+      <c r="O11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q11">
+        <v>0.2291017308586667</v>
+      </c>
+      <c r="R11">
+        <v>1.374610385152</v>
+      </c>
+      <c r="S11">
+        <v>0.1180616068000164</v>
+      </c>
+      <c r="T11">
+        <v>0.08226544337127475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.182912</v>
+      </c>
+      <c r="H12">
+        <v>0.365824</v>
+      </c>
+      <c r="I12">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J12">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.108201</v>
+      </c>
+      <c r="N12">
+        <v>0.324603</v>
+      </c>
+      <c r="O12">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P12">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q12">
+        <v>0.019791261312</v>
+      </c>
+      <c r="R12">
+        <v>0.118747567872</v>
+      </c>
+      <c r="S12">
+        <v>0.01019891077355137</v>
+      </c>
+      <c r="T12">
+        <v>0.007106611026491275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.182912</v>
+      </c>
+      <c r="H13">
+        <v>0.365824</v>
+      </c>
+      <c r="I13">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J13">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q13">
+        <v>0.002870925781333334</v>
+      </c>
+      <c r="R13">
+        <v>0.017225554688</v>
+      </c>
+      <c r="S13">
+        <v>0.001479456787504161</v>
+      </c>
+      <c r="T13">
+        <v>0.001030886940060303</v>
       </c>
     </row>
   </sheetData>
